--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>961438.1626702324</v>
+        <v>966930.4696330129</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543014</v>
+        <v>1667317.432543015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977804</v>
+        <v>7966425.477977805</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7798889.358867572</v>
+        <v>7798889.358867571</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>195.2656287827595</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -677,7 +679,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>293.9830065956634</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -899,16 +901,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>197.4431459587919</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -944,7 +946,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.2310393419112</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>244.2758325711461</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>208.0952379273904</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1370,13 +1372,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1385,7 +1387,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>260.5357924617895</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>301.6400355822628</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>255.9116134808057</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>197.1715362966123</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1850,16 +1852,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>179.6297606625857</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8.817639746825195</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>72.30123682227976</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>149.9890778405621</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>298.6349601701887</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>176.492541022383</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.71458769549607</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>148.8136220965693</v>
+        <v>379.9800797988274</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>152.0141258892105</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.1499684380553</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2564,7 +2566,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>138.6864680084571</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.68660328817521</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>159.3149947016329</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>93.52529077486052</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>99.51081038270279</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>77.21457263038793</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2852,10 +2854,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.1730386082886</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>97.61153143263792</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>71.21176895789225</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>162.9987265797761</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.19550843742099</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.39345098864435</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>112.6606764273492</v>
       </c>
       <c r="D35" t="n">
-        <v>215.4653208794772</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
@@ -3284,7 +3286,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>113.1667354347865</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>259.8413675668391</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3518,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>50.00750636093581</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>100.3434053864687</v>
+        <v>100.3434053864683</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>345.0489836658502</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>285.2547707245739</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3907,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>86.64940239199018</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>223.866617274486</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3983,10 +3985,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>324.4069712276388</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>256.7115579699417</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -4141,16 +4143,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>106.1730386082885</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.6158245190444</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2012.018398500169</v>
+        <v>1945.009999395723</v>
       </c>
       <c r="C2" t="n">
-        <v>1618.8428970031</v>
+        <v>1551.834497898654</v>
       </c>
       <c r="D2" t="n">
-        <v>1618.8428970031</v>
+        <v>1551.834497898654</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.259372119644</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4346,7 +4348,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
@@ -4367,13 +4369,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>3105.956385205776</v>
+        <v>2734.957350174063</v>
       </c>
       <c r="X2" t="n">
-        <v>2809.003853290965</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y2" t="n">
-        <v>2412.513144211566</v>
+        <v>2345.50474510712</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J3" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>1220.474978512094</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L3" t="n">
-        <v>1704.041064410407</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M3" t="n">
-        <v>1704.041064410407</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N3" t="n">
-        <v>2359.819035620967</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934489</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P3" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4486,7 +4488,7 @@
         <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.739450209017</v>
+        <v>1117.152317712726</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.563948711948</v>
+        <v>723.976816215657</v>
       </c>
       <c r="D5" t="n">
-        <v>927.1228199286156</v>
+        <v>723.976816215657</v>
       </c>
       <c r="E5" t="n">
-        <v>524.5392950451601</v>
+        <v>723.976816215657</v>
       </c>
       <c r="F5" t="n">
-        <v>524.5392950451601</v>
+        <v>723.976816215657</v>
       </c>
       <c r="G5" t="n">
         <v>524.5392950451601</v>
@@ -4562,7 +4564,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4592,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="U5" t="n">
-        <v>2812.210741925897</v>
+        <v>2645.697186866947</v>
       </c>
       <c r="V5" t="n">
-        <v>2470.103932629415</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.103932629415</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="X5" t="n">
-        <v>2470.103932629415</v>
+        <v>1914.137772503522</v>
       </c>
       <c r="Y5" t="n">
-        <v>2106.234195920414</v>
+        <v>1517.647063424123</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J6" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>1606.310991511064</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>2122.831274102045</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
         <v>2146.089571124861</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K7" t="n">
         <v>143.9541688140574</v>
@@ -4747,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1549.899190548942</v>
+        <v>996.2152709921756</v>
       </c>
       <c r="C8" t="n">
-        <v>1156.723689051872</v>
+        <v>603.0397694951062</v>
       </c>
       <c r="D8" t="n">
-        <v>771.28256026854</v>
+        <v>603.0397694951062</v>
       </c>
       <c r="E8" t="n">
-        <v>771.28256026854</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F8" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4820,34 +4822,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q8" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2677.949313991765</v>
+        <v>2895.759175178109</v>
       </c>
       <c r="V8" t="n">
-        <v>2335.842504695284</v>
+        <v>2553.652365881627</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.842504695284</v>
+        <v>2182.653330849915</v>
       </c>
       <c r="X8" t="n">
-        <v>1946.389899628341</v>
+        <v>1793.200725782971</v>
       </c>
       <c r="Y8" t="n">
-        <v>1549.899190548942</v>
+        <v>1396.710016703573</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O9" t="n">
         <v>1974.833293963354</v>
@@ -4960,7 +4962,7 @@
         <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1285.351823183204</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="C11" t="n">
-        <v>892.1763216861347</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D11" t="n">
-        <v>892.1763216861347</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E11" t="n">
-        <v>892.1763216861347</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F11" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,7 +5059,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5075,16 +5077,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2842.788918072656</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2471.789883040943</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X11" t="n">
-        <v>2082.337277974</v>
+        <v>2801.269480577228</v>
       </c>
       <c r="Y11" t="n">
-        <v>1685.846568894601</v>
+        <v>2404.778771497829</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L12" t="n">
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5221,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T13" t="n">
-        <v>603.946109046479</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U13" t="n">
-        <v>603.946109046479</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V13" t="n">
-        <v>345.4495297729379</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2535.796644191037</v>
+        <v>1039.898925960893</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>646.7234244638239</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>261.2822956804916</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5303,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W14" t="n">
-        <v>3105.956385205776</v>
+        <v>2226.336985818632</v>
       </c>
       <c r="X14" t="n">
-        <v>3105.956385205776</v>
+        <v>1836.884380751689</v>
       </c>
       <c r="Y14" t="n">
-        <v>2936.291389902433</v>
+        <v>1440.39367167229</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5470,16 +5472,16 @@
         <v>115.6912334709294</v>
       </c>
       <c r="V16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2535.796644191037</v>
+        <v>1577.411516051555</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>1184.236014554486</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>798.7948857711535</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>617.350683081673</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H17" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5531,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5549,16 +5551,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>2374.396970842351</v>
       </c>
       <c r="Y17" t="n">
-        <v>2936.291389902433</v>
+        <v>1977.906261762952</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5591,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L18" t="n">
         <v>174.7633905351325</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>241.2309524531013</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411553</v>
+        <v>71.02583451909047</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411553</v>
+        <v>71.02583451909047</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411553</v>
+        <v>71.02583451909047</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411553</v>
+        <v>71.02583451909047</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5695,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>636.8490770607943</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T19" t="n">
-        <v>401.1300252290284</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U19" t="n">
-        <v>401.1300252290284</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="V19" t="n">
-        <v>135.1506800498527</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411553</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411553</v>
+        <v>241.2309524531013</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>241.2309524531013</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>771.6433069209571</v>
+        <v>1720.050363795584</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>1326.874862298515</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>941.4337335151826</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>941.4337335151826</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451603</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451603</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116509</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
@@ -5768,7 +5770,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5777,7 +5779,7 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T20" t="n">
         <v>2677.949313991765</v>
@@ -5786,16 +5788,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2120.545109506981</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2120.545109506981</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2120.545109506981</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518279</v>
+        <v>2120.545109506981</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C21" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D21" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1898.958585755135</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>2554.736556965694</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>3071.256839556675</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R21" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S21" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T21" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U21" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V21" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W21" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X21" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y21" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2401.698912613887</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C22" t="n">
-        <v>2231.493794679876</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D22" t="n">
-        <v>2231.493794679876</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E22" t="n">
-        <v>2231.493794679876</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F22" t="n">
-        <v>2231.493794679876</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>2870.237333374011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>2870.237333374011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V22" t="n">
-        <v>2870.237333374011</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W22" t="n">
-        <v>2586.906931305188</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="X22" t="n">
-        <v>2586.906931305188</v>
+        <v>463.5064828494752</v>
       </c>
       <c r="Y22" t="n">
-        <v>2586.906931305188</v>
+        <v>240.3944216661186</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1346.588908101251</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="C23" t="n">
-        <v>953.4134066041818</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="D23" t="n">
-        <v>803.0966166076471</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E23" t="n">
-        <v>803.0966166076471</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F23" t="n">
-        <v>386.2021781376249</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6011,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.942227706244</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U23" t="n">
-        <v>2460.189498140842</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V23" t="n">
-        <v>2118.082688844361</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W23" t="n">
-        <v>1747.083653812648</v>
+        <v>2530.450881400636</v>
       </c>
       <c r="X23" t="n">
-        <v>1747.083653812648</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="Y23" t="n">
-        <v>1747.083653812648</v>
+        <v>2140.998276333693</v>
       </c>
     </row>
     <row r="24">
@@ -6063,13 +6065,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L24" t="n">
         <v>545.6852136024288</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D25" t="n">
-        <v>2517.394109592048</v>
+        <v>684.0320477807597</v>
       </c>
       <c r="E25" t="n">
-        <v>2361.835297451251</v>
+        <v>528.4732356399622</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>371.1473008529352</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>2982.055395838353</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S25" t="n">
-        <v>2779.239312020903</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y25" t="n">
-        <v>2673.027222689534</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1383.406624290657</v>
+        <v>1344.012821542897</v>
       </c>
       <c r="C26" t="n">
-        <v>990.2311227935872</v>
+        <v>950.8373200458277</v>
       </c>
       <c r="D26" t="n">
-        <v>604.789994010255</v>
+        <v>565.3961912624954</v>
       </c>
       <c r="E26" t="n">
-        <v>202.2064691267995</v>
+        <v>162.81266637904</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>162.81266637904</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>162.81266637904</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>162.81266637904</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>2882.455782765193</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U26" t="n">
-        <v>2882.455782765193</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V26" t="n">
-        <v>2540.348973468711</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W26" t="n">
-        <v>2169.349938436999</v>
+        <v>2530.450881400636</v>
       </c>
       <c r="X26" t="n">
-        <v>1779.897333370056</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="Y26" t="n">
-        <v>1383.406624290657</v>
+        <v>1744.507567254294</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6314,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
         <v>1740.468202408463</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>223.043364776472</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C28" t="n">
-        <v>62.11912770411553</v>
+        <v>793.3610323116571</v>
       </c>
       <c r="D28" t="n">
-        <v>62.11912770411553</v>
+        <v>637.7279192141718</v>
       </c>
       <c r="E28" t="n">
-        <v>62.11912770411553</v>
+        <v>482.1691070733743</v>
       </c>
       <c r="F28" t="n">
-        <v>62.11912770411553</v>
+        <v>324.8431722863473</v>
       </c>
       <c r="G28" t="n">
-        <v>62.11912770411553</v>
+        <v>156.5891183857928</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411553</v>
+        <v>156.5891183857928</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6421,13 +6423,13 @@
         <v>963.5661502456679</v>
       </c>
       <c r="W28" t="n">
-        <v>680.2357481768456</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X28" t="n">
-        <v>446.1554259598287</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.043364776472</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1595.123960030147</v>
+        <v>950.6597514544414</v>
       </c>
       <c r="C29" t="n">
-        <v>1201.948458533077</v>
+        <v>950.6597514544414</v>
       </c>
       <c r="D29" t="n">
-        <v>1201.948458533077</v>
+        <v>565.2186226711092</v>
       </c>
       <c r="E29" t="n">
-        <v>799.3649336496217</v>
+        <v>162.6350977876537</v>
       </c>
       <c r="F29" t="n">
-        <v>799.3649336496217</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G29" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6479,34 +6481,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2989.968953682825</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2734.216224117424</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V29" t="n">
-        <v>2392.109414820943</v>
+        <v>2508.096846343893</v>
       </c>
       <c r="W29" t="n">
-        <v>2392.109414820943</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X29" t="n">
-        <v>2392.109414820943</v>
+        <v>1747.645206245237</v>
       </c>
       <c r="Y29" t="n">
-        <v>1995.618705741544</v>
+        <v>1351.154497165838</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6539,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M30" t="n">
         <v>689.8907773307967</v>
@@ -6558,7 +6560,7 @@
         <v>1862.189031132337</v>
       </c>
       <c r="P30" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C31" t="n">
-        <v>2935.751267271766</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D31" t="n">
-        <v>2780.11815417428</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E31" t="n">
-        <v>2624.559342033483</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F31" t="n">
-        <v>2467.233407246455</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G31" t="n">
-        <v>2359.98791370273</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>864.9686437480539</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W31" t="n">
-        <v>3105.956385205776</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X31" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y31" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>840.7357579845172</v>
+        <v>1716.318680837559</v>
       </c>
       <c r="C32" t="n">
-        <v>447.5602564874478</v>
+        <v>1323.143179340489</v>
       </c>
       <c r="D32" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="E32" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F32" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6716,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6725,25 +6727,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T32" t="n">
-        <v>2996.032391735851</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2740.27966217045</v>
+        <v>2513.304135628355</v>
       </c>
       <c r="V32" t="n">
-        <v>2398.172852873969</v>
+        <v>2513.304135628355</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.173817842256</v>
+        <v>2513.304135628355</v>
       </c>
       <c r="X32" t="n">
-        <v>1637.721212775313</v>
+        <v>2513.304135628355</v>
       </c>
       <c r="Y32" t="n">
-        <v>1241.230503695914</v>
+        <v>2116.813426548956</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6776,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="M33" t="n">
-        <v>1458.313011372373</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N33" t="n">
         <v>1458.313011372373</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2414.305903262296</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="C34" t="n">
-        <v>2244.100785328285</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>2747.581489247527</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>2590.2555544605</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>2422.001500559946</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>2266.52294952144</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L34" t="n">
         <v>2450.472043647965</v>
@@ -6871,7 +6873,7 @@
         <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P34" t="n">
         <v>3102.534188835725</v>
@@ -6883,25 +6885,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="W34" t="n">
-        <v>2822.625983136954</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="X34" t="n">
-        <v>2822.625983136954</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="Y34" t="n">
-        <v>2599.513921953597</v>
+        <v>2903.140301388325</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1548.519290316325</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="C35" t="n">
-        <v>1155.343788819255</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D35" t="n">
-        <v>937.702050557157</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E35" t="n">
-        <v>937.702050557157</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6962,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="W35" t="n">
-        <v>2734.957350174064</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="X35" t="n">
-        <v>2345.50474510712</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="Y35" t="n">
-        <v>1949.014036027722</v>
+        <v>2118.08268884436</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C37" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D37" t="n">
-        <v>176.4289614766272</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E37" t="n">
-        <v>176.4289614766272</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F37" t="n">
-        <v>176.4289614766272</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7123,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V37" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W37" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X37" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y37" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2073.376476849992</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C38" t="n">
-        <v>1680.200975352922</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D38" t="n">
-        <v>1294.75984656959</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E38" t="n">
-        <v>892.1763216861347</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F38" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7190,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3017.450838803484</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>2793.9502363629</v>
       </c>
       <c r="U38" t="n">
-        <v>2677.949313991765</v>
+        <v>2793.9502363629</v>
       </c>
       <c r="V38" t="n">
-        <v>2335.842504695284</v>
+        <v>2793.9502363629</v>
       </c>
       <c r="W38" t="n">
-        <v>2335.842504695284</v>
+        <v>2793.9502363629</v>
       </c>
       <c r="X38" t="n">
-        <v>2335.842504695284</v>
+        <v>2793.9502363629</v>
       </c>
       <c r="Y38" t="n">
-        <v>2335.842504695284</v>
+        <v>2397.459527283501</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1898.958585755135</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>2554.736556965694</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O39" t="n">
-        <v>3071.256839556675</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="C40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="D40" t="n">
-        <v>862.2091751078208</v>
+        <v>3004.599410067929</v>
       </c>
       <c r="E40" t="n">
-        <v>706.6503629670233</v>
+        <v>2849.040597927131</v>
       </c>
       <c r="F40" t="n">
-        <v>549.3244281799962</v>
+        <v>2691.714663140104</v>
       </c>
       <c r="G40" t="n">
-        <v>381.0703742794417</v>
+        <v>2523.46060923955</v>
       </c>
       <c r="H40" t="n">
-        <v>225.5918232409357</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I40" t="n">
-        <v>92.49739787801357</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>917.7147965422296</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="C41" t="n">
-        <v>524.5392950451601</v>
+        <v>813.2369795227733</v>
       </c>
       <c r="D41" t="n">
-        <v>524.5392950451601</v>
+        <v>813.2369795227733</v>
       </c>
       <c r="E41" t="n">
-        <v>524.5392950451601</v>
+        <v>410.6534546393178</v>
       </c>
       <c r="F41" t="n">
-        <v>524.5392950451601</v>
+        <v>410.6534546393178</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2373.835418409762</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W41" t="n">
-        <v>2002.83638337805</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X41" t="n">
-        <v>1714.700251333025</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y41" t="n">
-        <v>1318.209542253627</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1898.958585755135</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N42" t="n">
-        <v>2554.736556965694</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
-        <v>3071.256839556675</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F43" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G43" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H43" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7594,25 +7596,25 @@
         <v>839.6651608782449</v>
       </c>
       <c r="S43" t="n">
-        <v>636.8490770607943</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T43" t="n">
-        <v>636.8490770607943</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U43" t="n">
-        <v>636.8490770607943</v>
+        <v>554.2263691201458</v>
       </c>
       <c r="V43" t="n">
-        <v>636.8490770607943</v>
+        <v>288.2470239409701</v>
       </c>
       <c r="W43" t="n">
-        <v>636.8490770607943</v>
+        <v>288.2470239409701</v>
       </c>
       <c r="X43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1660.213721337995</v>
+        <v>1168.419567305365</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.038219840925</v>
+        <v>775.2440658082951</v>
       </c>
       <c r="D44" t="n">
-        <v>881.5970910575932</v>
+        <v>389.8029370249628</v>
       </c>
       <c r="E44" t="n">
-        <v>479.0135661741377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7670,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2725.856662194816</v>
       </c>
       <c r="W44" t="n">
-        <v>2846.651781195734</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="X44" t="n">
-        <v>2457.199176128791</v>
+        <v>1965.40502209616</v>
       </c>
       <c r="Y44" t="n">
-        <v>2060.708467049392</v>
+        <v>1568.914313016762</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7724,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
         <v>1458.313011372373</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>387.9573587356116</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C46" t="n">
-        <v>217.7522408016008</v>
+        <v>793.3610323116571</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411553</v>
+        <v>637.7279192141718</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>482.1691070733743</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>324.8431722863473</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -7846,10 +7848,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="X46" t="n">
-        <v>796.2774386102695</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y46" t="n">
-        <v>573.1653774269129</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
   </sheetData>
@@ -7994,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475127</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8060,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>199.9106794075979</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8234,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8297,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>110.5765941352903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8529,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,13 +8540,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8775,13 +8777,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,22 +9008,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9477,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,16 +9491,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9962,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10206,10 +10208,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q30" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,13 +10433,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>691.2645480167034</v>
+        <v>517.3131487114047</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10668,22 +10670,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10914,10 +10916,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P39" t="n">
-        <v>122.1334109295184</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11066,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,7 +11387,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22553,7 +22555,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>203.2920608518614</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>91.57507242061035</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22787,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>211.5879819980849</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -22847,10 +22849,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.2947626466937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>168.4496615141759</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>45.09996434235697</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23315,13 +23317,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>78.14994874172731</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>83.91804343401094</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>7.40793824657834</v>
+        <v>87.62118754448966</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>201.3861533380085</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -23552,16 +23554,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>218.9279289720351</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23902,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>157.7538736147237</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>208.1958612258544</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>246.5007204137208</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>40.05078103332812</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6.863397482005269</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24139,7 +24141,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>139.8569256660528</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24178,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>232.7730953989296</v>
+        <v>1.606637696671498</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>14.55738747233843</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>128.2118928753929</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>274.0390260768648</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24461,7 +24463,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>37.26714245028461</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>9.188072053037729</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>38.23819033443236</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24661,13 +24663,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>313.2146837026192</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>144.0510237857895</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>60.39847475326033</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24889,19 +24891,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24929,13 +24931,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>150.0538274582852</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>90.19647568997129</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8812735290894</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>70.37003012064852</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25123,7 +25125,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
@@ -25135,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>276.5830700547495</v>
       </c>
       <c r="D35" t="n">
-        <v>166.1213966160217</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25315,25 +25317,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40477792676236</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>136.6484306874438</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>114.8409131474241</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25457,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,7 +25554,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>53.73337658004174</v>
+        <v>53.73337658004206</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>63.9821442910266</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>100.3033082916998</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,19 +25797,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>69.1032730471666</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>7.872901720360744</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25871,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>74.15071840698204</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25922,10 +25924,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>110.5774867114537</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>60.39847475326044</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>131.7634811092929</v>
@@ -26086,10 +26088,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.12369447580232</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674462.2025077147</v>
+        <v>674462.2025077145</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674462.2025077147</v>
+        <v>674462.2025077144</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077143</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674462.2025077147</v>
+        <v>674462.2025077145</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674462.2025077147</v>
+        <v>674462.2025077145</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674462.2025077147</v>
+        <v>674462.2025077145</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077143</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674462.2025077146</v>
+        <v>674462.2025077145</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>229000.8148323084</v>
       </c>
       <c r="C2" t="n">
+        <v>229000.8148323084</v>
+      </c>
+      <c r="D2" t="n">
         <v>229000.8148323085</v>
-      </c>
-      <c r="D2" t="n">
-        <v>229000.8148323084</v>
       </c>
       <c r="E2" t="n">
         <v>229000.8148323084</v>
@@ -26326,7 +26328,7 @@
         <v>229000.8148323084</v>
       </c>
       <c r="G2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="H2" t="n">
         <v>229000.8148323084</v>
@@ -26335,25 +26337,25 @@
         <v>229000.8148323084</v>
       </c>
       <c r="J2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="K2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="L2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="M2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="N2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323083</v>
       </c>
       <c r="O2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323083</v>
       </c>
       <c r="P2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323083</v>
       </c>
     </row>
     <row r="3">
@@ -26418,31 +26420,31 @@
         <v>13453.11359961299</v>
       </c>
       <c r="C4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="D4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="E4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="F4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="G4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="H4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="I4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="J4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="K4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="L4" t="n">
         <v>13453.11359961299</v>
@@ -26451,13 +26453,13 @@
         <v>13453.11359961299</v>
       </c>
       <c r="N4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="O4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
       <c r="P4" t="n">
-        <v>13453.11359961299</v>
+        <v>13453.11359961298</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="K5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="L5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125509.7912422612</v>
+        <v>-125509.7912422611</v>
       </c>
       <c r="C6" t="n">
+        <v>134709.5641775676</v>
+      </c>
+      <c r="D6" t="n">
         <v>134709.5641775677</v>
-      </c>
-      <c r="D6" t="n">
-        <v>134709.5641775676</v>
       </c>
       <c r="E6" t="n">
         <v>168337.1641775676</v>
@@ -26534,7 +26536,7 @@
         <v>168337.1641775676</v>
       </c>
       <c r="G6" t="n">
-        <v>168337.1641775677</v>
+        <v>168337.1641775676</v>
       </c>
       <c r="H6" t="n">
         <v>168337.1641775676</v>
@@ -26543,25 +26545,25 @@
         <v>168337.1641775676</v>
       </c>
       <c r="J6" t="n">
-        <v>-34826.54893512736</v>
+        <v>-34826.5489351273</v>
       </c>
       <c r="K6" t="n">
         <v>168337.1641775676</v>
       </c>
       <c r="L6" t="n">
+        <v>168337.1641775676</v>
+      </c>
+      <c r="M6" t="n">
         <v>168337.1641775677</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
+        <v>168337.1641775675</v>
+      </c>
+      <c r="O6" t="n">
         <v>168337.1641775676</v>
       </c>
-      <c r="N6" t="n">
-        <v>168337.1641775677</v>
-      </c>
-      <c r="O6" t="n">
-        <v>168337.1641775677</v>
-      </c>
       <c r="P6" t="n">
-        <v>168337.1641775677</v>
+        <v>168337.1641775675</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="D4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065875</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>107.223120518709</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>23.49322931597565</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35185,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,13 +35260,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35495,13 +35497,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,16 +36211,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36926,10 +36928,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8774259673916</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37388,22 +37390,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37634,10 +37636,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P39" t="n">
-        <v>35.0500461102038</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>287.7334829729928</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,7 +38107,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966930.4696330129</v>
+        <v>962396.6464635155</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543015</v>
+        <v>1667317.432543014</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977805</v>
+        <v>7966425.477977806</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7798889.358867571</v>
+        <v>7798889.358867573</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>195.2656287827595</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>126.8261495432526</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>197.4431459587919</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>260.0529558017153</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>207.6985751920913</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.7563058149332</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>208.0952379273904</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1390,7 +1390,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>301.6400355822628</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>193.3570397616418</v>
       </c>
     </row>
     <row r="12">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -1587,10 +1587,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>197.1715362966123</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>82.04130397419152</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -1824,10 +1824,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>154.853023011353</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6297606625857</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.817639746825195</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>298.6349601701887</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>327.6478132369489</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.492541022383</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>379.9800797988274</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,10 +2335,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>152.0141258892105</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.68660328817521</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>91.75746486184035</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>93.52529077486052</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>57.83014775033189</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>99.51081038270279</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>97.61153143263792</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -3085,19 +3085,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>162.9987265797761</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>53.93037218594163</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.39345098864435</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.6606764273492</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>79.44819197544395</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3520,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>50.00750636093581</v>
+        <v>102.7514432615795</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3666,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>100.3434053864683</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>214.7651156389419</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>345.0489836658502</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>223.866617274486</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E44" t="n">
-        <v>324.4069712276388</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>106.1730386082885</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>7.026861626779032</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1945.009999395723</v>
+        <v>1382.005735257375</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.834497898654</v>
+        <v>988.8302337603059</v>
       </c>
       <c r="D2" t="n">
-        <v>1551.834497898654</v>
+        <v>603.3891049769736</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>603.3891049769736</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>603.3891049769736</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>190.2263494649767</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4348,7 +4348,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
@@ -4357,25 +4357,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U2" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V2" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W2" t="n">
-        <v>2734.957350174063</v>
+        <v>2568.443795115114</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.50474510712</v>
+        <v>2178.991190048171</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.50474510712</v>
+        <v>1782.500480968772</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>346.9752758473783</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L3" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M3" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N3" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O3" t="n">
         <v>1974.833293963354</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.152317712726</v>
+        <v>2012.018398500169</v>
       </c>
       <c r="C5" t="n">
-        <v>723.976816215657</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D5" t="n">
-        <v>723.976816215657</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E5" t="n">
-        <v>723.976816215657</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F5" t="n">
-        <v>723.976816215657</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U5" t="n">
-        <v>2645.697186866947</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V5" t="n">
-        <v>2303.590377570466</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="W5" t="n">
-        <v>2303.590377570466</v>
+        <v>2274.698151835235</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.137772503522</v>
+        <v>2274.698151835235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1517.647063424123</v>
+        <v>2012.018398500169</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
         <v>175.2341099238429</v>
@@ -4655,16 +4655,16 @@
         <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>658.8001958221562</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N6" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
         <v>143.9541688140574</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>753.7696096475959</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>753.7696096475959</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411552</v>
+        <v>753.7696096475959</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411552</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411552</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411552</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>996.2152709921756</v>
+        <v>1491.511254134026</v>
       </c>
       <c r="C8" t="n">
-        <v>603.0397694951062</v>
+        <v>1098.335752636957</v>
       </c>
       <c r="D8" t="n">
-        <v>603.0397694951062</v>
+        <v>712.8946238536246</v>
       </c>
       <c r="E8" t="n">
-        <v>200.4562446116507</v>
+        <v>310.3110989701691</v>
       </c>
       <c r="F8" t="n">
         <v>200.4562446116507</v>
@@ -4801,7 +4801,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4822,34 +4822,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2895.759175178109</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>2553.652365881627</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.653330849915</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X8" t="n">
-        <v>1793.200725782971</v>
+        <v>2288.496708924822</v>
       </c>
       <c r="Y8" t="n">
-        <v>1396.710016703573</v>
+        <v>1892.005999845423</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
         <v>175.2341099238429</v>
@@ -4895,10 +4895,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.310991511064</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P9" t="n">
         <v>2380.454662679751</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4992,22 +4992,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2004.284025786432</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="C11" t="n">
-        <v>2004.284025786432</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.8428970031</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E11" t="n">
-        <v>1216.259372119644</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F11" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5059,34 +5059,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="X11" t="n">
-        <v>2801.269480577228</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2404.778771497829</v>
+        <v>2140.532363521908</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5226,25 +5226,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>525.0310145964513</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>239.5922228383523</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V13" t="n">
-        <v>62.11912770411552</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1039.898925960893</v>
+        <v>1271.040909596637</v>
       </c>
       <c r="C14" t="n">
-        <v>646.7234244638239</v>
+        <v>877.865408099568</v>
       </c>
       <c r="D14" t="n">
-        <v>261.2822956804916</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E14" t="n">
-        <v>62.11912770411552</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F14" t="n">
-        <v>62.11912770411552</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2939.442830146827</v>
+        <v>3023.086381191441</v>
       </c>
       <c r="T14" t="n">
-        <v>2939.442830146827</v>
+        <v>2799.585778750858</v>
       </c>
       <c r="U14" t="n">
-        <v>2939.442830146827</v>
+        <v>2799.585778750858</v>
       </c>
       <c r="V14" t="n">
-        <v>2597.336020850345</v>
+        <v>2457.478969454377</v>
       </c>
       <c r="W14" t="n">
-        <v>2226.336985818632</v>
+        <v>2457.478969454377</v>
       </c>
       <c r="X14" t="n">
-        <v>1836.884380751689</v>
+        <v>2068.026364387433</v>
       </c>
       <c r="Y14" t="n">
-        <v>1440.39367167229</v>
+        <v>1671.535655308034</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5460,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>62.11912770411552</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.411516051555</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="C17" t="n">
-        <v>1184.236014554486</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D17" t="n">
-        <v>798.7948857711535</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E17" t="n">
-        <v>617.350683081673</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>200.4562446116507</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G17" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H17" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5533,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5545,22 +5545,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V17" t="n">
-        <v>2763.849575909294</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W17" t="n">
-        <v>2763.849575909294</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X17" t="n">
-        <v>2374.396970842351</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.906261762952</v>
+        <v>1913.597208871598</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.2309524531013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>71.02583451909047</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>71.02583451909047</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>71.02583451909047</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>71.02583451909047</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5700,25 +5700,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>760.7500664282172</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>475.3112746701182</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V19" t="n">
-        <v>475.3112746701182</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W19" t="n">
-        <v>475.3112746701182</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>241.2309524531013</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>241.2309524531013</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1720.050363795584</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="C20" t="n">
-        <v>1326.874862298515</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="D20" t="n">
-        <v>941.4337335151826</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E20" t="n">
-        <v>941.4337335151826</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F20" t="n">
-        <v>524.5392950451603</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451603</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116509</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
@@ -5770,34 +5770,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432348</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V20" t="n">
-        <v>2120.545109506981</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W20" t="n">
-        <v>2120.545109506981</v>
+        <v>2608.485443038798</v>
       </c>
       <c r="X20" t="n">
-        <v>2120.545109506981</v>
+        <v>2219.032837971854</v>
       </c>
       <c r="Y20" t="n">
-        <v>2120.545109506981</v>
+        <v>2219.032837971854</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5843,7 +5843,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5940,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V22" t="n">
-        <v>697.5868050664922</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W22" t="n">
-        <v>697.5868050664922</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>463.5064828494752</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>240.3944216661186</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2140.998276333693</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>2140.998276333693</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>2530.450881400636</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>2140.998276333693</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>2140.998276333693</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>684.0320477807597</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>528.4732356399622</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>371.1473008529352</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6171,28 +6171,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>839.6651608782449</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>839.6651608782449</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1344.012821542897</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C26" t="n">
-        <v>950.8373200458277</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D26" t="n">
-        <v>565.3961912624954</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E26" t="n">
-        <v>162.81266637904</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F26" t="n">
-        <v>162.81266637904</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G26" t="n">
-        <v>162.81266637904</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H26" t="n">
-        <v>162.81266637904</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T26" t="n">
-        <v>2901.449916432349</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U26" t="n">
-        <v>2901.449916432349</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V26" t="n">
-        <v>2901.449916432349</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W26" t="n">
-        <v>2530.450881400636</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X26" t="n">
-        <v>2140.998276333693</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="Y26" t="n">
-        <v>1744.507567254294</v>
+        <v>2226.767210685592</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
         <v>1223.947919817482</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>793.3610323116571</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>637.7279192141718</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>482.1691070733743</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>324.8431722863473</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>156.5891183857928</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>156.5891183857928</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6414,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>950.6597514544414</v>
+        <v>1491.511254134026</v>
       </c>
       <c r="C29" t="n">
-        <v>950.6597514544414</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D29" t="n">
-        <v>565.2186226711092</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E29" t="n">
-        <v>162.6350977876537</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411552</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6481,34 +6481,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V29" t="n">
-        <v>2508.096846343893</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W29" t="n">
-        <v>2137.097811312181</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X29" t="n">
-        <v>1747.645206245237</v>
+        <v>2288.496708924822</v>
       </c>
       <c r="Y29" t="n">
-        <v>1351.154497165838</v>
+        <v>1892.005999845423</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>62.11912770411552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
         <v>2146.089571124861</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
         <v>143.9541688140574</v>
@@ -6651,22 +6651,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>864.9686437480539</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>579.5298519899548</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>579.5298519899548</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>296.1994499211324</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1716.318680837559</v>
+        <v>1303.155925325562</v>
       </c>
       <c r="C32" t="n">
-        <v>1323.143179340489</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D32" t="n">
-        <v>937.702050557157</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E32" t="n">
-        <v>937.702050557157</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G32" t="n">
         <v>524.5392950451601</v>
@@ -6697,7 +6697,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6718,34 +6718,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432348</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U32" t="n">
-        <v>2513.304135628355</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V32" t="n">
-        <v>2513.304135628355</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W32" t="n">
-        <v>2513.304135628355</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X32" t="n">
-        <v>2513.304135628355</v>
+        <v>1357.631048745705</v>
       </c>
       <c r="Y32" t="n">
-        <v>2116.813426548956</v>
+        <v>1303.155925325562</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>381.8582737663419</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2903.140301388325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2903.140301388325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2903.140301388325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2747.581489247527</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2590.2555544605</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2422.001500559946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2266.52294952144</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>2903.140301388325</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>2903.140301388325</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>2903.140301388325</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>2903.140301388325</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>2903.140301388325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>2903.140301388325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>2903.140301388325</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2118.08268884436</v>
+        <v>1383.406624290657</v>
       </c>
       <c r="C35" t="n">
-        <v>2004.284025786432</v>
+        <v>990.2311227935872</v>
       </c>
       <c r="D35" t="n">
-        <v>1618.8428970031</v>
+        <v>604.789994010255</v>
       </c>
       <c r="E35" t="n">
-        <v>1216.259372119644</v>
+        <v>604.789994010255</v>
       </c>
       <c r="F35" t="n">
-        <v>799.3649336496217</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H35" t="n">
-        <v>62.1191277041155</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2715.942227706243</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>2460.189498140842</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V35" t="n">
-        <v>2118.08268884436</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W35" t="n">
-        <v>2118.08268884436</v>
+        <v>2169.349938436999</v>
       </c>
       <c r="X35" t="n">
-        <v>2118.08268884436</v>
+        <v>1779.897333370056</v>
       </c>
       <c r="Y35" t="n">
-        <v>2118.08268884436</v>
+        <v>1383.406624290657</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7128,19 +7128,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W37" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2397.459527283501</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>2004.284025786432</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7201,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3017.450838803484</v>
+        <v>2964.17413486344</v>
       </c>
       <c r="T38" t="n">
-        <v>2793.9502363629</v>
+        <v>2740.673532422857</v>
       </c>
       <c r="U38" t="n">
-        <v>2793.9502363629</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="V38" t="n">
-        <v>2793.9502363629</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="W38" t="n">
-        <v>2793.9502363629</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="X38" t="n">
-        <v>2793.9502363629</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>2397.459527283501</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3105.956385205776</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="C40" t="n">
-        <v>3105.956385205776</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="D40" t="n">
-        <v>3004.599410067929</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="E40" t="n">
-        <v>2849.040597927131</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="F40" t="n">
-        <v>2691.714663140104</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="G40" t="n">
-        <v>2523.46060923955</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="H40" t="n">
-        <v>2367.982058201044</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I40" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V40" t="n">
-        <v>3105.956385205776</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W40" t="n">
-        <v>3105.956385205776</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="X40" t="n">
-        <v>3105.956385205776</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="Y40" t="n">
-        <v>3105.956385205776</v>
+        <v>195.2135530670377</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1206.412481019843</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C41" t="n">
-        <v>813.2369795227733</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D41" t="n">
-        <v>813.2369795227733</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>410.6534546393178</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>410.6534546393178</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2763.849575909294</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W41" t="n">
-        <v>2392.850540877582</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X41" t="n">
-        <v>2003.397935810639</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y41" t="n">
-        <v>1606.90722673124</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7499,10 +7499,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411552</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7593,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>554.2263691201458</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>288.2470239409701</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>288.2470239409701</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411552</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411552</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1168.419567305365</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C44" t="n">
-        <v>775.2440658082951</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D44" t="n">
-        <v>389.8029370249628</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>62.11912770411552</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>62.11912770411552</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7684,16 +7684,16 @@
         <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>2725.856662194816</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>2354.857627163104</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X44" t="n">
-        <v>1965.40502209616</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y44" t="n">
-        <v>1568.914313016762</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1458.313011372373</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O45" t="n">
         <v>1974.833293963354</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>963.5661502456679</v>
+        <v>387.699116391697</v>
       </c>
       <c r="C46" t="n">
-        <v>793.3610323116571</v>
+        <v>387.699116391697</v>
       </c>
       <c r="D46" t="n">
-        <v>637.7279192141718</v>
+        <v>387.699116391697</v>
       </c>
       <c r="E46" t="n">
-        <v>482.1691070733743</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F46" t="n">
-        <v>324.8431722863473</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G46" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -7839,19 +7839,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>671.0295184605194</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>387.699116391697</v>
       </c>
       <c r="X46" t="n">
-        <v>963.5661502456679</v>
+        <v>387.699116391697</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.5661502456679</v>
+        <v>387.699116391697</v>
       </c>
     </row>
   </sheetData>
@@ -7996,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475127</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,10 +8069,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>656.2283997181323</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8543,13 +8543,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O9" t="n">
-        <v>464.9323088406971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9257,13 +9257,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9491,10 +9491,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9722,10 +9722,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9734,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,7 +9962,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10132,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10430,13 +10430,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>517.3131487114047</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10445,7 +10445,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10667,16 +10667,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11147,13 +11147,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>199.6102425680207</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11375,22 +11375,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>203.2920608518614</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>194.0160703859216</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>211.5879819980849</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>132.4728461868896</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>25.66328612135689</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>303.9691882703888</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.09996434235697</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>83.91804343401094</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>199.1687622269631</v>
       </c>
     </row>
     <row r="12">
@@ -23466,7 +23466,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>87.62118754448966</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>201.3861533380085</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23545,10 +23545,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.80711553416842</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>234.3907234707457</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9279289720351</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23904,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>157.7538736147237</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23940,22 +23940,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>40.05078103332812</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>39.64123144444648</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.863397482005269</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.606637696671498</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24268,13 +24268,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>14.55738747233843</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>37.26714245028461</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24505,10 +24505,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>293.8006141544334</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>38.23819033443236</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24654,16 +24654,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>331.4135987317668</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>313.2146837026192</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>135.7503298808103</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>90.19647568997129</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>338.5954298026633</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>70.37003012064852</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25125,19 +25125,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,25 +25156,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>276.5830700547495</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>333.2773021098781</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,25 +25317,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>114.8409131474241</v>
+        <v>62.0969762467804</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25554,25 +25554,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>53.73337658004206</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>65.7319824091922</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>63.9821442910266</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25687,10 +25687,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>102.47156805457</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>7.872901720360744</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E44" t="n">
-        <v>74.15071840698204</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25924,10 +25924,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>60.39847475326044</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
         <v>131.7634811092929</v>
@@ -26079,13 +26079,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>256.292690100605</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674462.2025077144</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674462.2025077143</v>
+        <v>674462.2025077145</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674462.2025077145</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674462.2025077143</v>
+        <v>674462.2025077146</v>
       </c>
     </row>
     <row r="15">
@@ -26322,7 +26322,7 @@
         <v>229000.8148323085</v>
       </c>
       <c r="E2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="F2" t="n">
         <v>229000.8148323084</v>
@@ -26331,16 +26331,16 @@
         <v>229000.8148323084</v>
       </c>
       <c r="H2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="I2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="J2" t="n">
+        <v>229000.8148323084</v>
+      </c>
+      <c r="K2" t="n">
         <v>229000.8148323085</v>
-      </c>
-      <c r="K2" t="n">
-        <v>229000.8148323084</v>
       </c>
       <c r="L2" t="n">
         <v>229000.8148323084</v>
@@ -26352,10 +26352,10 @@
         <v>229000.8148323083</v>
       </c>
       <c r="O2" t="n">
-        <v>229000.8148323083</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="P2" t="n">
-        <v>229000.8148323083</v>
+        <v>229000.8148323084</v>
       </c>
     </row>
     <row r="3">
@@ -26420,28 +26420,28 @@
         <v>13453.11359961299</v>
       </c>
       <c r="C4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="D4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="E4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="F4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="G4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="H4" t="n">
         <v>13453.11359961299</v>
       </c>
       <c r="I4" t="n">
+        <v>13453.11359961299</v>
+      </c>
+      <c r="J4" t="n">
         <v>13453.11359961298</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13453.11359961299</v>
       </c>
       <c r="K4" t="n">
         <v>13453.11359961298</v>
@@ -26453,13 +26453,13 @@
         <v>13453.11359961299</v>
       </c>
       <c r="N4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="O4" t="n">
         <v>13453.11359961298</v>
       </c>
       <c r="P4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="K5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="L5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125509.7912422611</v>
+        <v>-126040.8862741264</v>
       </c>
       <c r="C6" t="n">
-        <v>134709.5641775676</v>
+        <v>134178.4691457025</v>
       </c>
       <c r="D6" t="n">
-        <v>134709.5641775677</v>
+        <v>134178.4691457025</v>
       </c>
       <c r="E6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457025</v>
       </c>
       <c r="F6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457025</v>
       </c>
       <c r="G6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457024</v>
       </c>
       <c r="H6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457026</v>
       </c>
       <c r="I6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457025</v>
       </c>
       <c r="J6" t="n">
-        <v>-34826.5489351273</v>
+        <v>-35357.64396699255</v>
       </c>
       <c r="K6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457025</v>
       </c>
       <c r="L6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457025</v>
       </c>
       <c r="M6" t="n">
-        <v>168337.1641775677</v>
+        <v>167806.0691457025</v>
       </c>
       <c r="N6" t="n">
-        <v>168337.1641775675</v>
+        <v>167806.0691457024</v>
       </c>
       <c r="O6" t="n">
-        <v>168337.1641775676</v>
+        <v>167806.0691457025</v>
       </c>
       <c r="P6" t="n">
-        <v>168337.1641775675</v>
+        <v>167806.0691457024</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="L4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065875</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,10 +34789,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>570.8562868639657</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O9" t="n">
-        <v>372.2447499518083</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35977,13 +35977,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>135.5123342397976</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36454,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,7 +36682,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37165,7 +37165,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37630,19 +37630,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>107.2231205187088</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7334829729928</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
